--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Il33</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.347564</v>
+        <v>1.486249333333333</v>
       </c>
       <c r="H2">
-        <v>1.042692</v>
+        <v>4.458748</v>
       </c>
       <c r="I2">
-        <v>0.003471420291921353</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="J2">
-        <v>0.003471420291921352</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.08712533333334</v>
+        <v>0.1390653333333333</v>
       </c>
       <c r="N2">
-        <v>54.26137600000001</v>
+        <v>0.417196</v>
       </c>
       <c r="O2">
-        <v>0.8095832169568322</v>
+        <v>0.005785596068552704</v>
       </c>
       <c r="P2">
-        <v>0.8095832169568321</v>
+        <v>0.005785596068552705</v>
       </c>
       <c r="Q2">
-        <v>6.286433629354668</v>
+        <v>0.2066857589564444</v>
       </c>
       <c r="R2">
-        <v>56.577902664192</v>
+        <v>1.860171830608</v>
       </c>
       <c r="S2">
-        <v>0.002810403607342914</v>
+        <v>8.44205219688004E-05</v>
       </c>
       <c r="T2">
-        <v>0.002810403607342914</v>
+        <v>8.442052196880041E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.347564</v>
+        <v>1.486249333333333</v>
       </c>
       <c r="H3">
-        <v>1.042692</v>
+        <v>4.458748</v>
       </c>
       <c r="I3">
-        <v>0.003471420291921353</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="J3">
-        <v>0.003471420291921352</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4533353333333334</v>
+        <v>18.08712533333333</v>
       </c>
       <c r="N3">
-        <v>1.360006</v>
+        <v>54.261376</v>
       </c>
       <c r="O3">
-        <v>0.02029137691901867</v>
+        <v>0.7524866097945809</v>
       </c>
       <c r="P3">
-        <v>0.02029137691901866</v>
+        <v>0.7524866097945812</v>
       </c>
       <c r="Q3">
-        <v>0.1575630417946667</v>
+        <v>26.88197796858311</v>
       </c>
       <c r="R3">
-        <v>1.418067376152</v>
+        <v>241.937801717248</v>
       </c>
       <c r="S3">
-        <v>7.043989758770598E-05</v>
+        <v>0.01097990796811412</v>
       </c>
       <c r="T3">
-        <v>7.043989758770596E-05</v>
+        <v>0.01097990796811412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.347564</v>
+        <v>1.486249333333333</v>
       </c>
       <c r="H4">
-        <v>1.042692</v>
+        <v>4.458748</v>
       </c>
       <c r="I4">
-        <v>0.003471420291921353</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="J4">
-        <v>0.003471420291921352</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.233231</v>
+        <v>0.3058226666666666</v>
       </c>
       <c r="N4">
-        <v>0.699693</v>
+        <v>0.917468</v>
       </c>
       <c r="O4">
-        <v>0.0104394645248616</v>
+        <v>0.01272327456117247</v>
       </c>
       <c r="P4">
-        <v>0.0104394645248616</v>
+        <v>0.01272327456117248</v>
       </c>
       <c r="Q4">
-        <v>0.08106269928399999</v>
+        <v>0.4545287344515555</v>
       </c>
       <c r="R4">
-        <v>0.7295642935559999</v>
+        <v>4.090758610063999</v>
       </c>
       <c r="S4">
-        <v>3.623976898839767E-05</v>
+        <v>0.0001856516540179468</v>
       </c>
       <c r="T4">
-        <v>3.623976898839766E-05</v>
+        <v>0.0001856516540179469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.347564</v>
+        <v>1.486249333333333</v>
       </c>
       <c r="H5">
-        <v>1.042692</v>
+        <v>4.458748</v>
       </c>
       <c r="I5">
-        <v>0.003471420291921353</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="J5">
-        <v>0.003471420291921352</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.759994666666666</v>
+        <v>0.01638</v>
       </c>
       <c r="N5">
-        <v>8.279983999999999</v>
+        <v>0.04914</v>
       </c>
       <c r="O5">
-        <v>0.1235378933824143</v>
+        <v>0.0006814643256615113</v>
       </c>
       <c r="P5">
-        <v>0.1235378933824143</v>
+        <v>0.0006814643256615114</v>
       </c>
       <c r="Q5">
-        <v>0.9592747863253331</v>
+        <v>0.02434476408</v>
       </c>
       <c r="R5">
-        <v>8.633473076927999</v>
+        <v>0.21910287672</v>
       </c>
       <c r="S5">
-        <v>0.0004288519499089298</v>
+        <v>9.943586346817448E-06</v>
       </c>
       <c r="T5">
-        <v>0.0004288519499089297</v>
+        <v>9.94358634681745E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.347564</v>
+        <v>1.486249333333333</v>
       </c>
       <c r="H6">
-        <v>1.042692</v>
+        <v>4.458748</v>
       </c>
       <c r="I6">
-        <v>0.003471420291921353</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="J6">
-        <v>0.003471420291921352</v>
+        <v>0.01459149947015202</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8075936666666667</v>
+        <v>5.488081333333334</v>
       </c>
       <c r="N6">
-        <v>2.422781</v>
+        <v>16.464244</v>
       </c>
       <c r="O6">
-        <v>0.03614804821687328</v>
+        <v>0.2283230552500322</v>
       </c>
       <c r="P6">
-        <v>0.03614804821687328</v>
+        <v>0.2283230552500323</v>
       </c>
       <c r="Q6">
-        <v>0.2806904851613333</v>
+        <v>8.156657222945778</v>
       </c>
       <c r="R6">
-        <v>2.526214366452</v>
+        <v>73.40991500651201</v>
       </c>
       <c r="S6">
-        <v>0.0001254850680934054</v>
+        <v>0.003331575739704336</v>
       </c>
       <c r="T6">
-        <v>0.0001254850680934054</v>
+        <v>0.003331575739704337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +856,10 @@
         <v>294.515984</v>
       </c>
       <c r="I7">
-        <v>0.9805280592473947</v>
+        <v>0.9638198490893187</v>
       </c>
       <c r="J7">
-        <v>0.9805280592473946</v>
+        <v>0.9638198490893186</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.08712533333334</v>
+        <v>0.1390653333333333</v>
       </c>
       <c r="N7">
-        <v>54.26137600000001</v>
+        <v>0.417196</v>
       </c>
       <c r="O7">
-        <v>0.8095832169568322</v>
+        <v>0.005785596068552704</v>
       </c>
       <c r="P7">
-        <v>0.8095832169568321</v>
+        <v>0.005785596068552705</v>
       </c>
       <c r="Q7">
-        <v>1775.649171759332</v>
+        <v>13.65232116231822</v>
       </c>
       <c r="R7">
-        <v>15980.84254583399</v>
+        <v>122.870890460864</v>
       </c>
       <c r="S7">
-        <v>0.7938190605219452</v>
+        <v>0.005576272329684223</v>
       </c>
       <c r="T7">
-        <v>0.793819060521945</v>
+        <v>0.005576272329684223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +918,40 @@
         <v>294.515984</v>
       </c>
       <c r="I8">
-        <v>0.9805280592473947</v>
+        <v>0.9638198490893187</v>
       </c>
       <c r="J8">
-        <v>0.9805280592473946</v>
+        <v>0.9638198490893186</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4533353333333334</v>
+        <v>18.08712533333333</v>
       </c>
       <c r="N8">
-        <v>1.360006</v>
+        <v>54.261376</v>
       </c>
       <c r="O8">
-        <v>0.02029137691901867</v>
+        <v>0.7524866097945809</v>
       </c>
       <c r="P8">
-        <v>0.02029137691901866</v>
+        <v>0.7524866097945812</v>
       </c>
       <c r="Q8">
-        <v>44.50483392621156</v>
+        <v>1775.649171759331</v>
       </c>
       <c r="R8">
-        <v>400.543505335904</v>
+        <v>15980.84254583398</v>
       </c>
       <c r="S8">
-        <v>0.01989626442986275</v>
+        <v>0.7252615306939461</v>
       </c>
       <c r="T8">
-        <v>0.01989626442986275</v>
+        <v>0.7252615306939462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +980,40 @@
         <v>294.515984</v>
       </c>
       <c r="I9">
-        <v>0.9805280592473947</v>
+        <v>0.9638198490893187</v>
       </c>
       <c r="J9">
-        <v>0.9805280592473946</v>
+        <v>0.9638198490893186</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.233231</v>
+        <v>0.3058226666666666</v>
       </c>
       <c r="N9">
-        <v>0.699693</v>
+        <v>0.917468</v>
       </c>
       <c r="O9">
-        <v>0.0104394645248616</v>
+        <v>0.01272327456117247</v>
       </c>
       <c r="P9">
-        <v>0.0104394645248616</v>
+        <v>0.01272327456117248</v>
       </c>
       <c r="Q9">
-        <v>22.89675248810133</v>
+        <v>30.02322120094577</v>
       </c>
       <c r="R9">
-        <v>206.070772392912</v>
+        <v>270.208990808512</v>
       </c>
       <c r="S9">
-        <v>0.01023618789014457</v>
+        <v>0.01226294456747122</v>
       </c>
       <c r="T9">
-        <v>0.01023618789014457</v>
+        <v>0.01226294456747122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1042,40 @@
         <v>294.515984</v>
       </c>
       <c r="I10">
-        <v>0.9805280592473947</v>
+        <v>0.9638198490893187</v>
       </c>
       <c r="J10">
-        <v>0.9805280592473946</v>
+        <v>0.9638198490893186</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.759994666666666</v>
+        <v>0.01638</v>
       </c>
       <c r="N10">
-        <v>8.279983999999999</v>
+        <v>0.04914</v>
       </c>
       <c r="O10">
-        <v>0.1235378933824143</v>
+        <v>0.0006814643256615113</v>
       </c>
       <c r="P10">
-        <v>0.1235378933824143</v>
+        <v>0.0006814643256615114</v>
       </c>
       <c r="Q10">
-        <v>270.9541816960284</v>
+        <v>1.60805727264</v>
       </c>
       <c r="R10">
-        <v>2438.587635264256</v>
+        <v>14.47251545376</v>
       </c>
       <c r="S10">
-        <v>0.1211323708417703</v>
+        <v>0.0006568088435188322</v>
       </c>
       <c r="T10">
-        <v>0.1211323708417703</v>
+        <v>0.0006568088435188322</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1104,10 @@
         <v>294.515984</v>
       </c>
       <c r="I11">
-        <v>0.9805280592473947</v>
+        <v>0.9638198490893187</v>
       </c>
       <c r="J11">
-        <v>0.9805280592473946</v>
+        <v>0.9638198490893186</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8075936666666667</v>
+        <v>5.488081333333334</v>
       </c>
       <c r="N11">
-        <v>2.422781</v>
+        <v>16.464244</v>
       </c>
       <c r="O11">
-        <v>0.03614804821687328</v>
+        <v>0.2283230552500322</v>
       </c>
       <c r="P11">
-        <v>0.03614804821687328</v>
+        <v>0.2283230552500323</v>
       </c>
       <c r="Q11">
-        <v>79.28308113683377</v>
+        <v>538.7758913862328</v>
       </c>
       <c r="R11">
-        <v>713.547730231504</v>
+        <v>4848.983022476096</v>
       </c>
       <c r="S11">
-        <v>0.03544417556367201</v>
+        <v>0.2200622926546982</v>
       </c>
       <c r="T11">
-        <v>0.035444175563672</v>
+        <v>0.2200622926546983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.099495</v>
+        <v>0.02384366666666667</v>
       </c>
       <c r="H12">
-        <v>0.298485</v>
+        <v>0.071531</v>
       </c>
       <c r="I12">
-        <v>0.0009937420502259008</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="J12">
-        <v>0.0009937420502259006</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.08712533333334</v>
+        <v>0.1390653333333333</v>
       </c>
       <c r="N12">
-        <v>54.26137600000001</v>
+        <v>0.417196</v>
       </c>
       <c r="O12">
-        <v>0.8095832169568322</v>
+        <v>0.005785596068552704</v>
       </c>
       <c r="P12">
-        <v>0.8095832169568321</v>
+        <v>0.005785596068552705</v>
       </c>
       <c r="Q12">
-        <v>1.79957853504</v>
+        <v>0.003315827452888889</v>
       </c>
       <c r="R12">
-        <v>16.19620681536</v>
+        <v>0.029842447076</v>
       </c>
       <c r="S12">
-        <v>0.0008045168858471628</v>
+        <v>1.354345290864221E-06</v>
       </c>
       <c r="T12">
-        <v>0.0008045168858471625</v>
+        <v>1.354345290864221E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,46 +1222,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.099495</v>
+        <v>0.02384366666666667</v>
       </c>
       <c r="H13">
-        <v>0.298485</v>
+        <v>0.071531</v>
       </c>
       <c r="I13">
-        <v>0.0009937420502259008</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="J13">
-        <v>0.0009937420502259006</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4533353333333334</v>
+        <v>18.08712533333333</v>
       </c>
       <c r="N13">
-        <v>1.360006</v>
+        <v>54.261376</v>
       </c>
       <c r="O13">
-        <v>0.02029137691901867</v>
+        <v>0.7524866097945809</v>
       </c>
       <c r="P13">
-        <v>0.02029137691901866</v>
+        <v>0.7524866097945812</v>
       </c>
       <c r="Q13">
-        <v>0.04510459899</v>
+        <v>0.4312633874062222</v>
       </c>
       <c r="R13">
-        <v>0.40594139091</v>
+        <v>3.881370486656</v>
       </c>
       <c r="S13">
-        <v>2.016439450141213E-05</v>
+        <v>0.0001761489541160817</v>
       </c>
       <c r="T13">
-        <v>2.016439450141212E-05</v>
+        <v>0.0001761489541160818</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1284,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.099495</v>
+        <v>0.02384366666666667</v>
       </c>
       <c r="H14">
-        <v>0.298485</v>
+        <v>0.071531</v>
       </c>
       <c r="I14">
-        <v>0.0009937420502259008</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="J14">
-        <v>0.0009937420502259006</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.233231</v>
+        <v>0.3058226666666666</v>
       </c>
       <c r="N14">
-        <v>0.699693</v>
+        <v>0.917468</v>
       </c>
       <c r="O14">
-        <v>0.0104394645248616</v>
+        <v>0.01272327456117247</v>
       </c>
       <c r="P14">
-        <v>0.0104394645248616</v>
+        <v>0.01272327456117248</v>
       </c>
       <c r="Q14">
-        <v>0.023205318345</v>
+        <v>0.00729193372311111</v>
       </c>
       <c r="R14">
-        <v>0.208847865105</v>
+        <v>0.06562740350799999</v>
       </c>
       <c r="S14">
-        <v>1.037413488019653E-05</v>
+        <v>2.978380582073209E-06</v>
       </c>
       <c r="T14">
-        <v>1.037413488019653E-05</v>
+        <v>2.97838058207321E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,46 +1346,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.099495</v>
+        <v>0.02384366666666667</v>
       </c>
       <c r="H15">
-        <v>0.298485</v>
+        <v>0.071531</v>
       </c>
       <c r="I15">
-        <v>0.0009937420502259008</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="J15">
-        <v>0.0009937420502259006</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>2.759994666666666</v>
+        <v>0.01638</v>
       </c>
       <c r="N15">
-        <v>8.279983999999999</v>
+        <v>0.04914</v>
       </c>
       <c r="O15">
-        <v>0.1235378933824143</v>
+        <v>0.0006814643256615113</v>
       </c>
       <c r="P15">
-        <v>0.1235378933824143</v>
+        <v>0.0006814643256615114</v>
       </c>
       <c r="Q15">
-        <v>0.27460566936</v>
+        <v>0.0003905592600000001</v>
       </c>
       <c r="R15">
-        <v>2.47145102424</v>
+        <v>0.00351503334</v>
       </c>
       <c r="S15">
-        <v>0.0001227647994504292</v>
+        <v>1.595234076862381E-07</v>
       </c>
       <c r="T15">
-        <v>0.0001227647994504291</v>
+        <v>1.595234076862382E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.099495</v>
+        <v>0.02384366666666667</v>
       </c>
       <c r="H16">
-        <v>0.298485</v>
+        <v>0.071531</v>
       </c>
       <c r="I16">
-        <v>0.0009937420502259008</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="J16">
-        <v>0.0009937420502259006</v>
+        <v>0.0002340891543095605</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8075936666666667</v>
+        <v>5.488081333333334</v>
       </c>
       <c r="N16">
-        <v>2.422781</v>
+        <v>16.464244</v>
       </c>
       <c r="O16">
-        <v>0.03614804821687328</v>
+        <v>0.2283230552500322</v>
       </c>
       <c r="P16">
-        <v>0.03614804821687328</v>
+        <v>0.2283230552500323</v>
       </c>
       <c r="Q16">
-        <v>0.08035153186499999</v>
+        <v>0.1308559819515556</v>
       </c>
       <c r="R16">
-        <v>0.723163786785</v>
+        <v>1.177703837564</v>
       </c>
       <c r="S16">
-        <v>3.592183554670037E-05</v>
+        <v>5.34479509128551E-05</v>
       </c>
       <c r="T16">
-        <v>3.592183554670036E-05</v>
+        <v>5.344795091285512E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1455,13 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8762123333333333</v>
+        <v>2.175116</v>
       </c>
       <c r="H17">
-        <v>2.628637</v>
+        <v>6.525348</v>
       </c>
       <c r="I17">
-        <v>0.008751485406903734</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="J17">
-        <v>0.008751485406903733</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.08712533333334</v>
+        <v>0.1390653333333333</v>
       </c>
       <c r="N17">
-        <v>54.26137600000001</v>
+        <v>0.417196</v>
       </c>
       <c r="O17">
-        <v>0.8095832169568322</v>
+        <v>0.005785596068552704</v>
       </c>
       <c r="P17">
-        <v>0.8095832169568321</v>
+        <v>0.005785596068552705</v>
       </c>
       <c r="Q17">
-        <v>15.84816229161245</v>
+        <v>0.3024832315786667</v>
       </c>
       <c r="R17">
-        <v>142.633460624512</v>
+        <v>2.722349084208</v>
       </c>
       <c r="S17">
-        <v>0.007085055708871897</v>
+        <v>0.0001235488716088166</v>
       </c>
       <c r="T17">
-        <v>0.007085055708871895</v>
+        <v>0.0001235488716088166</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8762123333333333</v>
+        <v>2.175116</v>
       </c>
       <c r="H18">
-        <v>2.628637</v>
+        <v>6.525348</v>
       </c>
       <c r="I18">
-        <v>0.008751485406903734</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="J18">
-        <v>0.008751485406903733</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4533353333333334</v>
+        <v>18.08712533333333</v>
       </c>
       <c r="N18">
-        <v>1.360006</v>
+        <v>54.261376</v>
       </c>
       <c r="O18">
-        <v>0.02029137691901867</v>
+        <v>0.7524866097945809</v>
       </c>
       <c r="P18">
-        <v>0.02029137691901866</v>
+        <v>0.7524866097945812</v>
       </c>
       <c r="Q18">
-        <v>0.3972180102024445</v>
+        <v>39.34159570653867</v>
       </c>
       <c r="R18">
-        <v>3.574962091822</v>
+        <v>354.074361358848</v>
       </c>
       <c r="S18">
-        <v>0.0001775796889927751</v>
+        <v>0.01606902217840469</v>
       </c>
       <c r="T18">
-        <v>0.0001775796889927751</v>
+        <v>0.01606902217840469</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1579,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8762123333333333</v>
+        <v>2.175116</v>
       </c>
       <c r="H19">
-        <v>2.628637</v>
+        <v>6.525348</v>
       </c>
       <c r="I19">
-        <v>0.008751485406903734</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="J19">
-        <v>0.008751485406903733</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.233231</v>
+        <v>0.3058226666666666</v>
       </c>
       <c r="N19">
-        <v>0.699693</v>
+        <v>0.917468</v>
       </c>
       <c r="O19">
-        <v>0.0104394645248616</v>
+        <v>0.01272327456117247</v>
       </c>
       <c r="P19">
-        <v>0.0104394645248616</v>
+        <v>0.01272327456117248</v>
       </c>
       <c r="Q19">
-        <v>0.2043598787156666</v>
+        <v>0.6651997754293333</v>
       </c>
       <c r="R19">
-        <v>1.839238908441</v>
+        <v>5.986797978864</v>
       </c>
       <c r="S19">
-        <v>9.136082144521553E-05</v>
+        <v>0.0002716999591012323</v>
       </c>
       <c r="T19">
-        <v>9.136082144521551E-05</v>
+        <v>0.0002716999591012324</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8762123333333333</v>
+        <v>2.175116</v>
       </c>
       <c r="H20">
-        <v>2.628637</v>
+        <v>6.525348</v>
       </c>
       <c r="I20">
-        <v>0.008751485406903734</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="J20">
-        <v>0.008751485406903733</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>2.759994666666666</v>
+        <v>0.01638</v>
       </c>
       <c r="N20">
-        <v>8.279983999999999</v>
+        <v>0.04914</v>
       </c>
       <c r="O20">
-        <v>0.1235378933824143</v>
+        <v>0.0006814643256615113</v>
       </c>
       <c r="P20">
-        <v>0.1235378933824143</v>
+        <v>0.0006814643256615114</v>
       </c>
       <c r="Q20">
-        <v>2.418341366867555</v>
+        <v>0.03562840008</v>
       </c>
       <c r="R20">
-        <v>21.765072301808</v>
+        <v>0.32065560072</v>
       </c>
       <c r="S20">
-        <v>0.001081140071135829</v>
+        <v>1.455237238817546E-05</v>
       </c>
       <c r="T20">
-        <v>0.001081140071135828</v>
+        <v>1.455237238817546E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1721,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8762123333333333</v>
+        <v>2.175116</v>
       </c>
       <c r="H21">
-        <v>2.628637</v>
+        <v>6.525348</v>
       </c>
       <c r="I21">
-        <v>0.008751485406903734</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="J21">
-        <v>0.008751485406903733</v>
+        <v>0.02135456228621971</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8075936666666667</v>
+        <v>5.488081333333334</v>
       </c>
       <c r="N21">
-        <v>2.422781</v>
+        <v>16.464244</v>
       </c>
       <c r="O21">
-        <v>0.03614804821687328</v>
+        <v>0.2283230552500322</v>
       </c>
       <c r="P21">
-        <v>0.03614804821687328</v>
+        <v>0.2283230552500323</v>
       </c>
       <c r="Q21">
-        <v>0.7076235310552221</v>
+        <v>11.93721351743467</v>
       </c>
       <c r="R21">
-        <v>6.368611779497</v>
+        <v>107.434921656912</v>
       </c>
       <c r="S21">
-        <v>0.0003163491164580191</v>
+        <v>0.004875738904716797</v>
       </c>
       <c r="T21">
-        <v>0.000316349116458019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.6262896666666666</v>
-      </c>
-      <c r="H22">
-        <v>1.878869</v>
-      </c>
-      <c r="I22">
-        <v>0.006255293003554242</v>
-      </c>
-      <c r="J22">
-        <v>0.006255293003554241</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>18.08712533333334</v>
-      </c>
-      <c r="N22">
-        <v>54.26137600000001</v>
-      </c>
-      <c r="O22">
-        <v>0.8095832169568322</v>
-      </c>
-      <c r="P22">
-        <v>0.8095832169568321</v>
-      </c>
-      <c r="Q22">
-        <v>11.32777969597156</v>
-      </c>
-      <c r="R22">
-        <v>101.950017263744</v>
-      </c>
-      <c r="S22">
-        <v>0.005064180232825009</v>
-      </c>
-      <c r="T22">
-        <v>0.005064180232825007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.6262896666666666</v>
-      </c>
-      <c r="H23">
-        <v>1.878869</v>
-      </c>
-      <c r="I23">
-        <v>0.006255293003554242</v>
-      </c>
-      <c r="J23">
-        <v>0.006255293003554241</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.4533353333333334</v>
-      </c>
-      <c r="N23">
-        <v>1.360006</v>
-      </c>
-      <c r="O23">
-        <v>0.02029137691901867</v>
-      </c>
-      <c r="P23">
-        <v>0.02029137691901866</v>
-      </c>
-      <c r="Q23">
-        <v>0.2839192348015556</v>
-      </c>
-      <c r="R23">
-        <v>2.555273113214</v>
-      </c>
-      <c r="S23">
-        <v>0.0001269285080740195</v>
-      </c>
-      <c r="T23">
-        <v>0.0001269285080740195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.6262896666666666</v>
-      </c>
-      <c r="H24">
-        <v>1.878869</v>
-      </c>
-      <c r="I24">
-        <v>0.006255293003554242</v>
-      </c>
-      <c r="J24">
-        <v>0.006255293003554241</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.233231</v>
-      </c>
-      <c r="N24">
-        <v>0.699693</v>
-      </c>
-      <c r="O24">
-        <v>0.0104394645248616</v>
-      </c>
-      <c r="P24">
-        <v>0.0104394645248616</v>
-      </c>
-      <c r="Q24">
-        <v>0.1460701652463333</v>
-      </c>
-      <c r="R24">
-        <v>1.314631487217</v>
-      </c>
-      <c r="S24">
-        <v>6.530190940321948E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.530190940321948E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6262896666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.878869</v>
-      </c>
-      <c r="I25">
-        <v>0.006255293003554242</v>
-      </c>
-      <c r="J25">
-        <v>0.006255293003554241</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.759994666666666</v>
-      </c>
-      <c r="N25">
-        <v>8.279983999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1235378933824143</v>
-      </c>
-      <c r="P25">
-        <v>0.1235378933824143</v>
-      </c>
-      <c r="Q25">
-        <v>1.728556139788444</v>
-      </c>
-      <c r="R25">
-        <v>15.557005258096</v>
-      </c>
-      <c r="S25">
-        <v>0.0007727657201488464</v>
-      </c>
-      <c r="T25">
-        <v>0.0007727657201488463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.6262896666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.878869</v>
-      </c>
-      <c r="I26">
-        <v>0.006255293003554242</v>
-      </c>
-      <c r="J26">
-        <v>0.006255293003554241</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.8075936666666667</v>
-      </c>
-      <c r="N26">
-        <v>2.422781</v>
-      </c>
-      <c r="O26">
-        <v>0.03614804821687328</v>
-      </c>
-      <c r="P26">
-        <v>0.03614804821687328</v>
-      </c>
-      <c r="Q26">
-        <v>0.5057875682987777</v>
-      </c>
-      <c r="R26">
-        <v>4.552088114689</v>
-      </c>
-      <c r="S26">
-        <v>0.0002261166331031488</v>
-      </c>
-      <c r="T26">
-        <v>0.0002261166331031488</v>
+        <v>0.004875738904716798</v>
       </c>
     </row>
   </sheetData>
